--- a/Normalisasi.xlsx
+++ b/Normalisasi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\TA\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D558E7E9-41B6-4443-AA45-9E67351BC17B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844425B4-F1B7-4CCD-904D-8E5F1BBED27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9072" xr2:uid="{D3C78148-1B90-4F77-B6B6-31361136B59D}"/>
+    <workbookView xWindow="-22635" yWindow="1245" windowWidth="17280" windowHeight="9075" xr2:uid="{D3C78148-1B90-4F77-B6B6-31361136B59D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="1078">
   <si>
     <t>Before</t>
   </si>
@@ -2358,9 +2358,6 @@
     <t>reakum</t>
   </si>
   <si>
-    <t>reakumulasi</t>
-  </si>
-  <si>
     <t>prnh</t>
   </si>
   <si>
@@ -2449,6 +2446,828 @@
   </si>
   <si>
     <t>halo</t>
+  </si>
+  <si>
+    <t>uptrend</t>
+  </si>
+  <si>
+    <t>uptren</t>
+  </si>
+  <si>
+    <t>sapa</t>
+  </si>
+  <si>
+    <t>siapa</t>
+  </si>
+  <si>
+    <t>asix</t>
+  </si>
+  <si>
+    <t>asik</t>
+  </si>
+  <si>
+    <t>kasi</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>msk</t>
+  </si>
+  <si>
+    <t>masuk</t>
+  </si>
+  <si>
+    <t>ngedoain</t>
+  </si>
+  <si>
+    <t>doa</t>
+  </si>
+  <si>
+    <t>ak</t>
+  </si>
+  <si>
+    <t>aku</t>
+  </si>
+  <si>
+    <t>rocket</t>
+  </si>
+  <si>
+    <t>roket</t>
+  </si>
+  <si>
+    <t>congrats</t>
+  </si>
+  <si>
+    <t>congratzz</t>
+  </si>
+  <si>
+    <t>gileeee</t>
+  </si>
+  <si>
+    <t>hehe</t>
+  </si>
+  <si>
+    <t>ahaha</t>
+  </si>
+  <si>
+    <t>tuh</t>
+  </si>
+  <si>
+    <t>ngomong</t>
+  </si>
+  <si>
+    <t>nunggu</t>
+  </si>
+  <si>
+    <t>tunggu</t>
+  </si>
+  <si>
+    <t>ngegas</t>
+  </si>
+  <si>
+    <t>eeuuyyy</t>
+  </si>
+  <si>
+    <t>woy</t>
+  </si>
+  <si>
+    <t>tahaaaannnnn</t>
+  </si>
+  <si>
+    <t>tetep</t>
+  </si>
+  <si>
+    <t>tergtg</t>
+  </si>
+  <si>
+    <t>gantung</t>
+  </si>
+  <si>
+    <t>buyer</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>buyernya</t>
+  </si>
+  <si>
+    <t>tnggu</t>
+  </si>
+  <si>
+    <t>boend</t>
+  </si>
+  <si>
+    <t>mba</t>
+  </si>
+  <si>
+    <t>mbak</t>
+  </si>
+  <si>
+    <t>darahkuuuu</t>
+  </si>
+  <si>
+    <t>darah</t>
+  </si>
+  <si>
+    <t>darahku</t>
+  </si>
+  <si>
+    <t>wkwkwkwk</t>
+  </si>
+  <si>
+    <t>wahaha</t>
+  </si>
+  <si>
+    <t>hahahah</t>
+  </si>
+  <si>
+    <t>hahah</t>
+  </si>
+  <si>
+    <t>hahahha</t>
+  </si>
+  <si>
+    <t>hahha</t>
+  </si>
+  <si>
+    <t>hahahaha</t>
+  </si>
+  <si>
+    <t>wkwkwkw</t>
+  </si>
+  <si>
+    <t>wkwkk</t>
+  </si>
+  <si>
+    <t>wkwkkwk</t>
+  </si>
+  <si>
+    <t>gaskeun</t>
+  </si>
+  <si>
+    <t>pungutin</t>
+  </si>
+  <si>
+    <t>ambil</t>
+  </si>
+  <si>
+    <t>pungut</t>
+  </si>
+  <si>
+    <t>yu</t>
+  </si>
+  <si>
+    <t>yokk</t>
+  </si>
+  <si>
+    <t>ambroll</t>
+  </si>
+  <si>
+    <t>ambrol</t>
+  </si>
+  <si>
+    <t>siapp</t>
+  </si>
+  <si>
+    <t>jngn</t>
+  </si>
+  <si>
+    <t>gass</t>
+  </si>
+  <si>
+    <t>nyolek</t>
+  </si>
+  <si>
+    <t>colek</t>
+  </si>
+  <si>
+    <t>teknikalnya</t>
+  </si>
+  <si>
+    <t>teknikal</t>
+  </si>
+  <si>
+    <t>klu</t>
+  </si>
+  <si>
+    <t>sllu</t>
+  </si>
+  <si>
+    <t>selalu</t>
+  </si>
+  <si>
+    <t>candaaaa</t>
+  </si>
+  <si>
+    <t>canda</t>
+  </si>
+  <si>
+    <t>apus</t>
+  </si>
+  <si>
+    <t>hapus</t>
+  </si>
+  <si>
+    <t>apusss</t>
+  </si>
+  <si>
+    <t>ngumpul</t>
+  </si>
+  <si>
+    <t>kumpul</t>
+  </si>
+  <si>
+    <t>ebusett</t>
+  </si>
+  <si>
+    <t>ebuset</t>
+  </si>
+  <si>
+    <t>bln</t>
+  </si>
+  <si>
+    <t>bulan</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>divnya</t>
+  </si>
+  <si>
+    <t>gimna</t>
+  </si>
+  <si>
+    <t>menembus</t>
+  </si>
+  <si>
+    <t>slalu</t>
+  </si>
+  <si>
+    <t>harga</t>
+  </si>
+  <si>
+    <t>hrg</t>
+  </si>
+  <si>
+    <t>hihi</t>
+  </si>
+  <si>
+    <t>hihihi</t>
+  </si>
+  <si>
+    <t>inpest</t>
+  </si>
+  <si>
+    <t>invest</t>
+  </si>
+  <si>
+    <t>bwat</t>
+  </si>
+  <si>
+    <t>buat</t>
+  </si>
+  <si>
+    <t>heyy</t>
+  </si>
+  <si>
+    <t>hey</t>
+  </si>
+  <si>
+    <t>heyyy</t>
+  </si>
+  <si>
+    <t>diakum</t>
+  </si>
+  <si>
+    <t>ndarr</t>
+  </si>
+  <si>
+    <t>ndar</t>
+  </si>
+  <si>
+    <t>sabarr</t>
+  </si>
+  <si>
+    <t>sabar</t>
+  </si>
+  <si>
+    <t>sednag</t>
+  </si>
+  <si>
+    <t>mrnunggu</t>
+  </si>
+  <si>
+    <t>terbamg</t>
+  </si>
+  <si>
+    <t>mmng</t>
+  </si>
+  <si>
+    <t>mmang</t>
+  </si>
+  <si>
+    <t>bkal</t>
+  </si>
+  <si>
+    <t>nyentuh</t>
+  </si>
+  <si>
+    <t>sentuh</t>
+  </si>
+  <si>
+    <t>nungguin</t>
+  </si>
+  <si>
+    <t>akhirnya</t>
+  </si>
+  <si>
+    <t>akhir</t>
+  </si>
+  <si>
+    <t>bidnya</t>
+  </si>
+  <si>
+    <t>bid</t>
+  </si>
+  <si>
+    <t>knapa</t>
+  </si>
+  <si>
+    <t>prluang</t>
+  </si>
+  <si>
+    <t>peluang</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>tkut</t>
+  </si>
+  <si>
+    <t>bndar</t>
+  </si>
+  <si>
+    <t>bandar</t>
+  </si>
+  <si>
+    <t>brpa</t>
+  </si>
+  <si>
+    <t>siaappp</t>
+  </si>
+  <si>
+    <t>mbaca</t>
+  </si>
+  <si>
+    <t>baca</t>
+  </si>
+  <si>
+    <t>scr</t>
+  </si>
+  <si>
+    <t>secara</t>
+  </si>
+  <si>
+    <t>wahh</t>
+  </si>
+  <si>
+    <t>sempet</t>
+  </si>
+  <si>
+    <t>sempat</t>
+  </si>
+  <si>
+    <t>mantulnya</t>
+  </si>
+  <si>
+    <t>mantep</t>
+  </si>
+  <si>
+    <t>mabur</t>
+  </si>
+  <si>
+    <t>jug</t>
+  </si>
+  <si>
+    <t>blg</t>
+  </si>
+  <si>
+    <t>rekom</t>
+  </si>
+  <si>
+    <t>rekomendasi</t>
+  </si>
+  <si>
+    <t>rekomen</t>
+  </si>
+  <si>
+    <t>rekomnya</t>
+  </si>
+  <si>
+    <t>nyampe</t>
+  </si>
+  <si>
+    <t>araa</t>
+  </si>
+  <si>
+    <t>aara</t>
+  </si>
+  <si>
+    <t>aaraa</t>
+  </si>
+  <si>
+    <t>sideways</t>
+  </si>
+  <si>
+    <t>sideway</t>
+  </si>
+  <si>
+    <t>setinggi</t>
+  </si>
+  <si>
+    <t>tinggi</t>
+  </si>
+  <si>
+    <t>spy</t>
+  </si>
+  <si>
+    <t>supaya</t>
+  </si>
+  <si>
+    <t>ribon</t>
+  </si>
+  <si>
+    <t>ribonn</t>
+  </si>
+  <si>
+    <t>bgs</t>
+  </si>
+  <si>
+    <t>sbtr</t>
+  </si>
+  <si>
+    <t>hayo</t>
+  </si>
+  <si>
+    <t>emng</t>
+  </si>
+  <si>
+    <t>malem</t>
+  </si>
+  <si>
+    <t>kencengin</t>
+  </si>
+  <si>
+    <t>ngasih</t>
+  </si>
+  <si>
+    <t>adlh</t>
+  </si>
+  <si>
+    <t>adalah</t>
+  </si>
+  <si>
+    <t>ayooo</t>
+  </si>
+  <si>
+    <t>gogo</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>tglnya</t>
+  </si>
+  <si>
+    <t>ngegasss</t>
+  </si>
+  <si>
+    <t>rocketnya</t>
+  </si>
+  <si>
+    <t>hadeuh</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>highest</t>
+  </si>
+  <si>
+    <t>dri</t>
+  </si>
+  <si>
+    <t>lbih</t>
+  </si>
+  <si>
+    <t>krena</t>
+  </si>
+  <si>
+    <t>pdhal</t>
+  </si>
+  <si>
+    <t>sbg</t>
+  </si>
+  <si>
+    <t>sebagai</t>
+  </si>
+  <si>
+    <t>tektokan</t>
+  </si>
+  <si>
+    <t>tektok</t>
+  </si>
+  <si>
+    <t>cusn</t>
+  </si>
+  <si>
+    <t>trlalu</t>
+  </si>
+  <si>
+    <t>terlalu</t>
+  </si>
+  <si>
+    <t>waduhh</t>
+  </si>
+  <si>
+    <t>mo</t>
+  </si>
+  <si>
+    <t>mau</t>
+  </si>
+  <si>
+    <t>tinggalin</t>
+  </si>
+  <si>
+    <t>storynya</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>jatohnya</t>
+  </si>
+  <si>
+    <t>jatoh</t>
+  </si>
+  <si>
+    <t>nyiapin</t>
+  </si>
+  <si>
+    <t>diturunin</t>
+  </si>
+  <si>
+    <t>matap</t>
+  </si>
+  <si>
+    <t>bangunnn</t>
+  </si>
+  <si>
+    <t>bangun</t>
+  </si>
+  <si>
+    <t>kmren</t>
+  </si>
+  <si>
+    <t>bersyuku</t>
+  </si>
+  <si>
+    <t>syukur</t>
+  </si>
+  <si>
+    <t>msih</t>
+  </si>
+  <si>
+    <t>pke</t>
+  </si>
+  <si>
+    <t>warrantnya</t>
+  </si>
+  <si>
+    <t>warrant</t>
+  </si>
+  <si>
+    <t>blng</t>
+  </si>
+  <si>
+    <t>pompomers</t>
+  </si>
+  <si>
+    <t>pompom</t>
+  </si>
+  <si>
+    <t>skali</t>
+  </si>
+  <si>
+    <t>sekali</t>
+  </si>
+  <si>
+    <t>smp</t>
+  </si>
+  <si>
+    <t>cuann</t>
+  </si>
+  <si>
+    <t>lossnya</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>kenaikan</t>
+  </si>
+  <si>
+    <t>penurunan</t>
+  </si>
+  <si>
+    <t>supirnya</t>
+  </si>
+  <si>
+    <t>sopir</t>
+  </si>
+  <si>
+    <t>supir</t>
+  </si>
+  <si>
+    <t>dibohongin</t>
+  </si>
+  <si>
+    <t>bohong</t>
+  </si>
+  <si>
+    <t>sptinya</t>
+  </si>
+  <si>
+    <t>dimerahin</t>
+  </si>
+  <si>
+    <t>gep</t>
+  </si>
+  <si>
+    <t>gap</t>
+  </si>
+  <si>
+    <t>atau</t>
+  </si>
+  <si>
+    <t>atao</t>
+  </si>
+  <si>
+    <t>dech</t>
+  </si>
+  <si>
+    <t>nahan</t>
+  </si>
+  <si>
+    <t>turunin</t>
+  </si>
+  <si>
+    <t>ngeprank</t>
+  </si>
+  <si>
+    <t>prank</t>
+  </si>
+  <si>
+    <t>iyaa</t>
+  </si>
+  <si>
+    <t>gimn</t>
+  </si>
+  <si>
+    <t>dighosting</t>
+  </si>
+  <si>
+    <t>kmr</t>
+  </si>
+  <si>
+    <t>kamar</t>
+  </si>
+  <si>
+    <t>sbnrnya</t>
+  </si>
+  <si>
+    <t>kdg</t>
+  </si>
+  <si>
+    <t>bgmn</t>
+  </si>
+  <si>
+    <t>dy</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t>arbnya</t>
+  </si>
+  <si>
+    <t>penurunanya</t>
+  </si>
+  <si>
+    <t>ngikut</t>
+  </si>
+  <si>
+    <t>ikut</t>
+  </si>
+  <si>
+    <t>koentji</t>
+  </si>
+  <si>
+    <t>kunci</t>
+  </si>
+  <si>
+    <t>fundanya</t>
+  </si>
+  <si>
+    <t>fundamental</t>
+  </si>
+  <si>
+    <t>hrsnya</t>
+  </si>
+  <si>
+    <t>nurunin</t>
+  </si>
+  <si>
+    <t>hbis</t>
+  </si>
+  <si>
+    <t>pngn</t>
+  </si>
+  <si>
+    <t>ambless</t>
+  </si>
+  <si>
+    <t>ambles</t>
+  </si>
+  <si>
+    <t>bwh</t>
+  </si>
+  <si>
+    <t>bawah</t>
+  </si>
+  <si>
+    <t>pnik</t>
+  </si>
+  <si>
+    <t>panik</t>
+  </si>
+  <si>
+    <t>skarang</t>
+  </si>
+  <si>
+    <t>menju</t>
+  </si>
+  <si>
+    <t>skalian</t>
+  </si>
+  <si>
+    <t>sekalian</t>
+  </si>
+  <si>
+    <t>bubarin</t>
+  </si>
+  <si>
+    <t>bubar</t>
+  </si>
+  <si>
+    <t>klupaan</t>
+  </si>
+  <si>
+    <t>lupa</t>
+  </si>
+  <si>
+    <t>suspen</t>
+  </si>
+  <si>
+    <t>inj</t>
+  </si>
+  <si>
+    <t>ini</t>
+  </si>
+  <si>
+    <t>devidend</t>
+  </si>
+  <si>
+    <t>simpen</t>
+  </si>
+  <si>
+    <t>simpan</t>
+  </si>
+  <si>
+    <t>disimpen</t>
+  </si>
+  <si>
+    <t>disimpan</t>
+  </si>
+  <si>
+    <t>runnya</t>
+  </si>
+  <si>
+    <t>run</t>
   </si>
 </sst>
 </file>
@@ -2810,10 +3629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E8738C-D1CF-4563-8421-504EA916B835}">
-  <dimension ref="A1:B507"/>
+  <dimension ref="A1:B710"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="A508" sqref="A508"/>
+    <sheetView tabSelected="1" topLeftCell="A688" workbookViewId="0">
+      <selection activeCell="B711" sqref="B711"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5130,7 +5949,7 @@
         <v>471</v>
       </c>
       <c r="B289" t="s">
-        <v>472</v>
+        <v>103</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -5418,7 +6237,7 @@
         <v>532</v>
       </c>
       <c r="B325" t="s">
-        <v>472</v>
+        <v>103</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
@@ -6690,12 +7509,12 @@
         <v>773</v>
       </c>
       <c r="B484" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B485" t="s">
         <v>666</v>
@@ -6703,7 +7522,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B486" t="s">
         <v>325</v>
@@ -6711,15 +7530,15 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
+        <v>776</v>
+      </c>
+      <c r="B487" t="s">
         <v>777</v>
-      </c>
-      <c r="B487" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B488" t="s">
         <v>188</v>
@@ -6727,7 +7546,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B489" t="s">
         <v>118</v>
@@ -6735,7 +7554,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B490" t="s">
         <v>621</v>
@@ -6743,7 +7562,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B491" t="s">
         <v>292</v>
@@ -6751,7 +7570,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B492" t="s">
         <v>103</v>
@@ -6759,7 +7578,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B493" t="s">
         <v>474</v>
@@ -6767,7 +7586,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B494" t="s">
         <v>157</v>
@@ -6775,7 +7594,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B495" t="s">
         <v>621</v>
@@ -6783,7 +7602,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B496" t="s">
         <v>30</v>
@@ -6791,7 +7610,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B497" t="s">
         <v>296</v>
@@ -6799,23 +7618,23 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
+        <v>788</v>
+      </c>
+      <c r="B498" t="s">
         <v>789</v>
-      </c>
-      <c r="B498" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
+        <v>790</v>
+      </c>
+      <c r="B499" t="s">
         <v>791</v>
-      </c>
-      <c r="B499" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B500" t="s">
         <v>621</v>
@@ -6823,7 +7642,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B501" t="s">
         <v>121</v>
@@ -6831,15 +7650,15 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
+        <v>794</v>
+      </c>
+      <c r="B502" t="s">
         <v>795</v>
-      </c>
-      <c r="B502" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B503" t="s">
         <v>56</v>
@@ -6847,7 +7666,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B504" t="s">
         <v>726</v>
@@ -6855,26 +7674,1650 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
+        <v>798</v>
+      </c>
+      <c r="B505" t="s">
         <v>799</v>
-      </c>
-      <c r="B505" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
+        <v>800</v>
+      </c>
+      <c r="B506" t="s">
         <v>801</v>
-      </c>
-      <c r="B506" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
+        <v>802</v>
+      </c>
+      <c r="B507" t="s">
         <v>803</v>
       </c>
-      <c r="B507" t="s">
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>805</v>
+      </c>
+      <c r="B508" t="s">
         <v>804</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>806</v>
+      </c>
+      <c r="B509" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>808</v>
+      </c>
+      <c r="B510" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>810</v>
+      </c>
+      <c r="B511" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>811</v>
+      </c>
+      <c r="B512" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>812</v>
+      </c>
+      <c r="B513" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>814</v>
+      </c>
+      <c r="B514" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>816</v>
+      </c>
+      <c r="B515" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>818</v>
+      </c>
+      <c r="B516" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>820</v>
+      </c>
+      <c r="B517" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>821</v>
+      </c>
+      <c r="B518" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>822</v>
+      </c>
+      <c r="B519" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>823</v>
+      </c>
+      <c r="B520" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>824</v>
+      </c>
+      <c r="B521" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>825</v>
+      </c>
+      <c r="B522" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>472</v>
+      </c>
+      <c r="B523" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>826</v>
+      </c>
+      <c r="B524" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>827</v>
+      </c>
+      <c r="B525" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>829</v>
+      </c>
+      <c r="B526" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>830</v>
+      </c>
+      <c r="B527" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>832</v>
+      </c>
+      <c r="B528" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B529" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>834</v>
+      </c>
+      <c r="B530" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>836</v>
+      </c>
+      <c r="B531" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>838</v>
+      </c>
+      <c r="B532" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>839</v>
+      </c>
+      <c r="B533" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>840</v>
+      </c>
+      <c r="B534" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>841</v>
+      </c>
+      <c r="B535" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>843</v>
+      </c>
+      <c r="B536" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>845</v>
+      </c>
+      <c r="B537" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>846</v>
+      </c>
+      <c r="B538" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>847</v>
+      </c>
+      <c r="B539" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>848</v>
+      </c>
+      <c r="B540" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>849</v>
+      </c>
+      <c r="B541" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>850</v>
+      </c>
+      <c r="B542" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>851</v>
+      </c>
+      <c r="B543" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>852</v>
+      </c>
+      <c r="B544" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>853</v>
+      </c>
+      <c r="B545" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>854</v>
+      </c>
+      <c r="B546" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>855</v>
+      </c>
+      <c r="B547" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>856</v>
+      </c>
+      <c r="B548" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>857</v>
+      </c>
+      <c r="B549" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>859</v>
+      </c>
+      <c r="B550" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>860</v>
+      </c>
+      <c r="B551" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>861</v>
+      </c>
+      <c r="B552" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>862</v>
+      </c>
+      <c r="B553" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>864</v>
+      </c>
+      <c r="B554" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A555" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="B555" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A556" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="B556" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B557" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>869</v>
+      </c>
+      <c r="B558" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>871</v>
+      </c>
+      <c r="B559" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>872</v>
+      </c>
+      <c r="B560" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>874</v>
+      </c>
+      <c r="B561" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>876</v>
+      </c>
+      <c r="B562" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>878</v>
+      </c>
+      <c r="B563" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>879</v>
+      </c>
+      <c r="B564" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>881</v>
+      </c>
+      <c r="B565" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>882</v>
+      </c>
+      <c r="B566" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>883</v>
+      </c>
+      <c r="B567" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>885</v>
+      </c>
+      <c r="B568" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>886</v>
+      </c>
+      <c r="B569" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>887</v>
+      </c>
+      <c r="B570" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>888</v>
+      </c>
+      <c r="B571" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>889</v>
+      </c>
+      <c r="B572" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>891</v>
+      </c>
+      <c r="B573" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>892</v>
+      </c>
+      <c r="B574" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>893</v>
+      </c>
+      <c r="B575" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>894</v>
+      </c>
+      <c r="B576" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>896</v>
+      </c>
+      <c r="B577" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>898</v>
+      </c>
+      <c r="B578" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>900</v>
+      </c>
+      <c r="B579" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>901</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>902</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>904</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>906</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>907</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>908</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>909</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>910</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>911</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>912</v>
+      </c>
+      <c r="B589" s="2" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>914</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>915</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>917</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>919</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>920</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>922</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>923</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>924</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
+        <v>926</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
+        <v>927</v>
+      </c>
+      <c r="B599" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>928</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
+        <v>930</v>
+      </c>
+      <c r="B601" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
+        <v>932</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
+        <v>933</v>
+      </c>
+      <c r="B603" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
+        <v>935</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
+        <v>936</v>
+      </c>
+      <c r="B605" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A606" t="s">
+        <v>937</v>
+      </c>
+      <c r="B606" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
+        <v>938</v>
+      </c>
+      <c r="B607" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A608" t="s">
+        <v>939</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
+        <v>940</v>
+      </c>
+      <c r="B609" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
+        <v>942</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A611" t="s">
+        <v>943</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A612" t="s">
+        <v>944</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A613" t="s">
+        <v>945</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
+        <v>946</v>
+      </c>
+      <c r="B614" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A615" t="s">
+        <v>947</v>
+      </c>
+      <c r="B615" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A616" t="s">
+        <v>948</v>
+      </c>
+      <c r="B616" s="2" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
+        <v>950</v>
+      </c>
+      <c r="B617" s="2" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A618" t="s">
+        <v>952</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
+        <v>954</v>
+      </c>
+      <c r="B619" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
+        <v>955</v>
+      </c>
+      <c r="B620" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
+        <v>956</v>
+      </c>
+      <c r="B621" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
+        <v>957</v>
+      </c>
+      <c r="B622" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A623" t="s">
+        <v>958</v>
+      </c>
+      <c r="B623" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A624" t="s">
+        <v>959</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
+        <v>960</v>
+      </c>
+      <c r="B625" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A626" t="s">
+        <v>961</v>
+      </c>
+      <c r="B626" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
+        <v>962</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
+        <v>963</v>
+      </c>
+      <c r="B628" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A629" t="s">
+        <v>965</v>
+      </c>
+      <c r="B629" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
+        <v>966</v>
+      </c>
+      <c r="B630" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
+        <v>968</v>
+      </c>
+      <c r="B631" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A632" t="s">
+        <v>969</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A633" t="s">
+        <v>970</v>
+      </c>
+      <c r="B633" s="2" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A634" t="s">
+        <v>971</v>
+      </c>
+      <c r="B634" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A635" t="s">
+        <v>973</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A636" t="s">
+        <v>974</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A637" t="s">
+        <v>975</v>
+      </c>
+      <c r="B637" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A638" t="s">
+        <v>976</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A639" t="s">
+        <v>977</v>
+      </c>
+      <c r="B639" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A640" t="s">
+        <v>978</v>
+      </c>
+      <c r="B640" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A641" t="s">
+        <v>980</v>
+      </c>
+      <c r="B641" s="2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A642" t="s">
+        <v>982</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A643" t="s">
+        <v>983</v>
+      </c>
+      <c r="B643" s="2" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A644" t="s">
+        <v>985</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A645" t="s">
+        <v>986</v>
+      </c>
+      <c r="B645" s="2" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A646" t="s">
+        <v>988</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A647" t="s">
+        <v>989</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A648" t="s">
+        <v>991</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A649" t="s">
+        <v>992</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A650" t="s">
+        <v>993</v>
+      </c>
+      <c r="B650" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A651" t="s">
+        <v>994</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A652" t="s">
+        <v>995</v>
+      </c>
+      <c r="B652" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A653" t="s">
+        <v>996</v>
+      </c>
+      <c r="B653" s="2" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A654" t="s">
+        <v>998</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A655" t="s">
+        <v>999</v>
+      </c>
+      <c r="B655" s="2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A656" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B656" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A657" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B657" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A658" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B658" s="2" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A659" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B659" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A660" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B660" s="2" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A661" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B661" s="2" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A662" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A663" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B663" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A664" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B664" s="2" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A665" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B665" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A666" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B666" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A667" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B667" s="2" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A668" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B668" s="2" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A669" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B669" s="2" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A670" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B670" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B671" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A672" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B672" s="2" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A673" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B673" s="2" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A674" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B674" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A675" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B675" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A676" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B676" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A677" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B677" s="2" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A678" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B678" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A679" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B679" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A680" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B680" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A681" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B681" s="2" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B682" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A683" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B683" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A684" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B684" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A685" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B685" s="2" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A686" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B686" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A687" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B687" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B688" s="2" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A689" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B689" s="2" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A690" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B690" s="2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A691" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B691" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A692" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B692" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A693" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B693" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A694" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B694" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A695" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B695" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A696" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B696" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A697" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A698" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A699" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B699" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A700" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B700" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A701" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A702" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A703" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A704" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B704" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A705" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A706" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B706" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A707" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A708" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A709" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A710" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1077</v>
       </c>
     </row>
   </sheetData>
